--- a/SHVIT/PowerPoint/Mappe1.xlsx
+++ b/SHVIT/PowerPoint/Mappe1.xlsx
@@ -5,27 +5,38 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Volker\Documents\Python\ChangGeng\shoes_segformer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChangGeng\Desktop\BA-Arbeit\PDF_Exchanger\SHVIT\PowerPoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C943D443-EBDC-4103-94B8-2AD086CFBB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A578317E-B24E-4FD4-9785-C71F0750FDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4620AFA3-E267-4DBB-B941-4AFBEAC3A5F9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{4620AFA3-E267-4DBB-B941-4AFBEAC3A5F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Segformer3D</t>
   </si>
@@ -45,9 +56,6 @@
     <t>224x224x224</t>
   </si>
   <si>
-    <t>20GB</t>
-  </si>
-  <si>
     <t>12GB</t>
   </si>
   <si>
@@ -75,13 +83,127 @@
     <t>240x240x240</t>
   </si>
   <si>
-    <t>was ist die maximale BildGröße?</t>
-  </si>
-  <si>
     <t>2 stages</t>
   </si>
   <si>
     <t>irgendwo ist Grenze for 24GB????</t>
+  </si>
+  <si>
+    <t>was ist die maximale Bildgröße?</t>
+  </si>
+  <si>
+    <t>avg_time</t>
+  </si>
+  <si>
+    <t>0.3972</t>
+  </si>
+  <si>
+    <t>0.5397</t>
+  </si>
+  <si>
+    <t>52.42 min</t>
+  </si>
+  <si>
+    <t>0.1569</t>
+  </si>
+  <si>
+    <t>0.5109</t>
+  </si>
+  <si>
+    <t>67.27 min</t>
+  </si>
+  <si>
+    <t>60.98 min</t>
+  </si>
+  <si>
+    <t>0.3624</t>
+  </si>
+  <si>
+    <t>0.5471</t>
+  </si>
+  <si>
+    <t>52.11 min</t>
+  </si>
+  <si>
+    <t>0.3719</t>
+  </si>
+  <si>
+    <t>0.5421</t>
+  </si>
+  <si>
+    <t>0.3761</t>
+  </si>
+  <si>
+    <t>0.5504</t>
+  </si>
+  <si>
+    <t>55.10 min</t>
+  </si>
+  <si>
+    <t>0.3802</t>
+  </si>
+  <si>
+    <t>0.5181</t>
+  </si>
+  <si>
+    <t>48.42 min</t>
+  </si>
+  <si>
+    <t>83.07 min</t>
+  </si>
+  <si>
+    <t>20.79 GB</t>
+  </si>
+  <si>
+    <t>0.4086</t>
+  </si>
+  <si>
+    <t>0.5884</t>
+  </si>
+  <si>
+    <t>0.4136</t>
+  </si>
+  <si>
+    <t>0.5928</t>
+  </si>
+  <si>
+    <t>90.46 min</t>
+  </si>
+  <si>
+    <t>0.3883</t>
+  </si>
+  <si>
+    <t>0.5275</t>
+  </si>
+  <si>
+    <t>59.07 min</t>
+  </si>
+  <si>
+    <t>0.3997</t>
+  </si>
+  <si>
+    <t>0.5374</t>
+  </si>
+  <si>
+    <t>59.62 min</t>
+  </si>
+  <si>
+    <t>0.3830</t>
+  </si>
+  <si>
+    <t>0.5249</t>
+  </si>
+  <si>
+    <t>78.92 min</t>
+  </si>
+  <si>
+    <t>0.1557</t>
+  </si>
+  <si>
+    <t>0.4706</t>
+  </si>
+  <si>
+    <t>55.67 min</t>
   </si>
 </sst>
 </file>
@@ -91,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +224,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,14 +261,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -159,9 +290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +330,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -305,7 +436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,560 +586,676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC6CBF7-6F12-4EBF-A147-6A230AFD4070}">
-  <dimension ref="B2:Q23"/>
+  <dimension ref="B2:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="8" width="10.54296875" customWidth="1"/>
+    <col min="5" max="13" width="10.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3"/>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="F3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C3" s="3" t="s">
+      <c r="S4" s="2">
+        <v>7</v>
+      </c>
+      <c r="U4" s="2">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="N4" s="3">
-        <v>7</v>
-      </c>
-      <c r="P4" s="3">
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
+      <c r="S5" s="5"/>
+      <c r="T5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <f>G6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6:K10" si="0">H6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1"/>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="O6" s="1" t="str">
+        <f>K6</f>
+        <v>0.3972</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" ref="P6:P10" si="0">M6</f>
+        <v>0</v>
+      </c>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <f t="shared" ref="J7:J10" si="1">G7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="str">
+        <f t="shared" ref="O7:O10" si="1">K7</f>
+        <v>0.3624</v>
+      </c>
+      <c r="P7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+        <v>0.3719</v>
+      </c>
+      <c r="P8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+        <v>0.3761</v>
+      </c>
+      <c r="P9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
+        <v>0.3802</v>
+      </c>
+      <c r="P10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="e">
-        <f>AVERAGE(C6:C10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="1" t="e">
-        <f t="shared" ref="D12:H12" si="2">AVERAGE(D6:D10)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="E12" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>AVERAGE(E6:E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G12:M12" si="2">AVERAGE(G6:G10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="1">
-        <f t="shared" ref="J12:Q12" si="3">AVERAGE(J6:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="e">
+        <f>AVERAGE(J6:J10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="1" t="e">
+        <f t="shared" ref="O12:V12" si="3">AVERAGE(O6:O10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="Q12" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R12" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="e">
-        <f>_xlfn.STDEV.P(C6:C10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
-        <f t="shared" ref="D13:H13" si="4">_xlfn.STDEV.P(D6:D10)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="E13" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>_xlfn.STDEV.P(E6:E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G13:M13" si="4">_xlfn.STDEV.P(G6:G10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="1">
-        <f t="shared" ref="J13:Q13" si="5">_xlfn.STDEV.P(J6:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="e">
+        <f>_xlfn.STDEV.P(J6:J10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="1" t="e">
+        <f t="shared" ref="O13:V13" si="5">_xlfn.STDEV.P(O6:O10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L13" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="Q13" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="M15" t="s">
+      <c r="R13" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="2">
+        <v>224</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <f>P16/Q16</f>
+        <v>56</v>
+      </c>
+      <c r="S16">
+        <f>R16/2</f>
+        <v>28</v>
+      </c>
+      <c r="T16">
+        <f>S16/2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="H17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="3">
-        <v>224</v>
-      </c>
-      <c r="L16">
+      <c r="P17" s="2">
+        <v>240</v>
+      </c>
+      <c r="Q17">
         <v>4</v>
       </c>
-      <c r="M16">
-        <f>K16/L16</f>
-        <v>56</v>
-      </c>
-      <c r="N16">
-        <f>M16/2</f>
-        <v>28</v>
-      </c>
-      <c r="O16">
-        <f>N16/2</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="3">
-        <v>240</v>
-      </c>
-      <c r="L17">
-        <v>4</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ref="M17:M23" si="6">K17/L17</f>
+      <c r="R17">
+        <f t="shared" ref="R17:R23" si="6">P17/Q17</f>
         <v>60</v>
       </c>
-      <c r="N17">
-        <f t="shared" ref="N17:O17" si="7">M17/2</f>
+      <c r="S17">
+        <f t="shared" ref="S17:T17" si="7">R17/2</f>
         <v>30</v>
       </c>
-      <c r="O17">
+      <c r="T17">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="3">
+    <row r="18" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="H18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="2">
         <v>256</v>
       </c>
-      <c r="L18">
+      <c r="Q18">
         <v>4</v>
       </c>
-      <c r="M18">
+      <c r="R18">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="N18">
-        <f t="shared" ref="N18:O18" si="8">M18/2</f>
+      <c r="S18">
+        <f t="shared" ref="S18:T18" si="8">R18/2</f>
         <v>32</v>
       </c>
-      <c r="O18">
+      <c r="T18">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="3">
-        <f>O19*16</f>
+    <row r="19" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="P19" s="2">
+        <f>T19*16</f>
         <v>272</v>
       </c>
-      <c r="L19">
+      <c r="Q19">
         <v>4</v>
       </c>
-      <c r="M19">
+      <c r="R19">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="N19">
-        <f t="shared" ref="N19:O19" si="9">M19/2</f>
+      <c r="S19">
+        <f t="shared" ref="S19" si="9">R19/2</f>
         <v>34</v>
       </c>
-      <c r="O19">
+      <c r="T19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="3">
-        <f>O20*16</f>
+    <row r="20" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="H20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="2">
+        <f>T20*16</f>
         <v>288</v>
       </c>
-      <c r="L20">
+      <c r="Q20">
         <v>4</v>
       </c>
-      <c r="M20">
+      <c r="R20">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="N20">
-        <f t="shared" ref="N20:O20" si="10">M20/2</f>
+      <c r="S20">
+        <f t="shared" ref="S20" si="10">R20/2</f>
         <v>36</v>
       </c>
-      <c r="O20">
+      <c r="T20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="K21" s="3">
-        <f>O21*16</f>
+    <row r="21" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="P21" s="2">
+        <f>T21*16</f>
         <v>304</v>
       </c>
-      <c r="L21">
+      <c r="Q21">
         <v>4</v>
       </c>
-      <c r="M21">
+      <c r="R21">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="N21">
-        <f t="shared" ref="N21:O21" si="11">M21/2</f>
+      <c r="S21">
+        <f t="shared" ref="S21" si="11">R21/2</f>
         <v>38</v>
       </c>
-      <c r="O21">
+      <c r="T21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="K22" s="3">
-        <f>O22*16</f>
+    <row r="22" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="P22" s="2">
+        <f>T22*16</f>
         <v>320</v>
       </c>
-      <c r="L22">
+      <c r="Q22">
         <v>4</v>
       </c>
-      <c r="M22">
+      <c r="R22">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="N22">
-        <f t="shared" ref="N22:O22" si="12">M22/2</f>
+      <c r="S22">
+        <f t="shared" ref="S22" si="12">R22/2</f>
         <v>40</v>
       </c>
-      <c r="O22">
+      <c r="T22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="K23" s="3">
-        <f>O23*16</f>
+    <row r="23" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="P23" s="2">
+        <f>T23*16</f>
         <v>336</v>
       </c>
-      <c r="L23">
+      <c r="Q23">
         <v>4</v>
       </c>
-      <c r="M23">
+      <c r="R23">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="N23">
-        <f t="shared" ref="N23:O23" si="13">M23/2</f>
+      <c r="S23">
+        <f t="shared" ref="S23" si="13">R23/2</f>
         <v>42</v>
       </c>
-      <c r="O23">
+      <c r="T23">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SHVIT/PowerPoint/Mappe1.xlsx
+++ b/SHVIT/PowerPoint/Mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChangGeng\Desktop\BA-Arbeit\PDF_Exchanger\SHVIT\PowerPoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A578317E-B24E-4FD4-9785-C71F0750FDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084A1A1F-A0CC-4583-B833-F2EF2215FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{4620AFA3-E267-4DBB-B941-4AFBEAC3A5F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>Segformer3D</t>
   </si>
@@ -204,6 +204,33 @@
   </si>
   <si>
     <t>55.67 min</t>
+  </si>
+  <si>
+    <t>74.46 min</t>
+  </si>
+  <si>
+    <t>0.1435</t>
+  </si>
+  <si>
+    <t>0.4750</t>
+  </si>
+  <si>
+    <t>0.1596</t>
+  </si>
+  <si>
+    <t>0.4868</t>
+  </si>
+  <si>
+    <t>69.59 min</t>
+  </si>
+  <si>
+    <t>136.96 min</t>
+  </si>
+  <si>
+    <t>0.2348</t>
+  </si>
+  <si>
+    <t>0.6219</t>
   </si>
 </sst>
 </file>
@@ -589,7 +616,7 @@
   <dimension ref="B2:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -787,8 +814,15 @@
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>45</v>
       </c>
@@ -828,8 +862,15 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
@@ -869,8 +910,15 @@
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
